--- a/BJ.xlsx
+++ b/BJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khristine.bosquillos\Desktop\Acquisition Auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAJ-LAP-012\Desktop\acquisition_and_social_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709C3B9-2E1B-40AE-8D4B-911EAF5754DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C455893-105A-4AFD-9C7F-E77646606E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3BA9520-202D-4695-A32E-32F8B3B0EBBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3BA9520-202D-4695-A32E-32F8B3B0EBBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
   <si>
     <t>richadspkr</t>
   </si>
@@ -114,114 +114,18 @@
     <t>propnppush</t>
   </si>
   <si>
-    <t>88idriads</t>
-  </si>
-  <si>
-    <t>88idflatad</t>
-  </si>
-  <si>
-    <t>88idcadu</t>
-  </si>
-  <si>
-    <t>88idriadspush</t>
-  </si>
-  <si>
     <t>amytidbj</t>
   </si>
   <si>
-    <t>88phpadsterra</t>
-  </si>
-  <si>
-    <t>88phtfnomads</t>
-  </si>
-  <si>
-    <t>88phtfstars</t>
-  </si>
-  <si>
-    <t>88phclickadu</t>
-  </si>
-  <si>
-    <t>88phadxad</t>
-  </si>
-  <si>
-    <t>88phflatad</t>
-  </si>
-  <si>
-    <t>88phadxadpush</t>
-  </si>
-  <si>
     <t>amytphbj</t>
   </si>
   <si>
-    <t>88khrtfstars</t>
-  </si>
-  <si>
-    <t>88khrdaoad</t>
-  </si>
-  <si>
-    <t>88khrcadilla</t>
-  </si>
-  <si>
-    <t>88khdaopush</t>
-  </si>
-  <si>
     <t>amytkhrbj</t>
   </si>
   <si>
-    <t>88krhtopads</t>
-  </si>
-  <si>
-    <t>88krtfnomads</t>
-  </si>
-  <si>
-    <t>88krclickadu</t>
-  </si>
-  <si>
-    <t>88vnrichads</t>
-  </si>
-  <si>
-    <t>88vntfnmads</t>
-  </si>
-  <si>
-    <t>88vnflatad</t>
-  </si>
-  <si>
-    <t>88vnhtopads</t>
-  </si>
-  <si>
-    <t>88vnclickadu</t>
-  </si>
-  <si>
-    <t>88vnrichadpush</t>
-  </si>
-  <si>
     <t>amytvnbj</t>
   </si>
   <si>
-    <t>88thbprplpop</t>
-  </si>
-  <si>
-    <t>88thbtnpop</t>
-  </si>
-  <si>
-    <t>88thbprplpush</t>
-  </si>
-  <si>
-    <t>88thbtnpush</t>
-  </si>
-  <si>
-    <t>88thbflatad</t>
-  </si>
-  <si>
-    <t>88krpadsterra</t>
-  </si>
-  <si>
-    <t>88khrclickadu</t>
-  </si>
-  <si>
-    <t>88phadsterra</t>
-  </si>
-  <si>
     <t>prelinkrichadsinr</t>
   </si>
   <si>
@@ -453,30 +357,12 @@
     <t>ftfbnpbj</t>
   </si>
   <si>
-    <t>lyfbbjvn</t>
-  </si>
-  <si>
-    <t>pafbbjvn</t>
-  </si>
-  <si>
     <t>lstfbvnbj</t>
   </si>
   <si>
     <t>cmfbvnbj</t>
   </si>
   <si>
-    <t>mafbkhbj</t>
-  </si>
-  <si>
-    <t>pafbkhbj</t>
-  </si>
-  <si>
-    <t>mafbbj88ph</t>
-  </si>
-  <si>
-    <t>pafbphbj</t>
-  </si>
-  <si>
     <t>cmfbphbj</t>
   </si>
   <si>
@@ -486,33 +372,12 @@
     <t>ftfbphbj</t>
   </si>
   <si>
-    <t>mafbkrbj</t>
-  </si>
-  <si>
-    <t>pafbkrbj</t>
-  </si>
-  <si>
     <t>ftfbkrbj</t>
   </si>
   <si>
     <t>jmfbkrbj</t>
   </si>
   <si>
-    <t>mafbidbj</t>
-  </si>
-  <si>
-    <t>pafbidbj</t>
-  </si>
-  <si>
-    <t>mafbthbj</t>
-  </si>
-  <si>
-    <t>cmfbthbj</t>
-  </si>
-  <si>
-    <t>fmfbthbj</t>
-  </si>
-  <si>
     <t>amfbthbj</t>
   </si>
   <si>
@@ -525,9 +390,6 @@
     <t>paigpkbj</t>
   </si>
   <si>
-    <t>maiginbj</t>
-  </si>
-  <si>
     <t>paiginbj</t>
   </si>
   <si>
@@ -537,39 +399,6 @@
     <t>paignpbj</t>
   </si>
   <si>
-    <t>maigbj88vn</t>
-  </si>
-  <si>
-    <t>paigvnbj</t>
-  </si>
-  <si>
-    <t>maigbj88kh</t>
-  </si>
-  <si>
-    <t>paigbj88kh</t>
-  </si>
-  <si>
-    <t>maigbj88ph</t>
-  </si>
-  <si>
-    <t>paigphbj</t>
-  </si>
-  <si>
-    <t>maigkrbj</t>
-  </si>
-  <si>
-    <t>paigkrbj</t>
-  </si>
-  <si>
-    <t>maigidrbj</t>
-  </si>
-  <si>
-    <t>paigidbj</t>
-  </si>
-  <si>
-    <t>maigthbj</t>
-  </si>
-  <si>
     <t>mattpkbj</t>
   </si>
   <si>
@@ -594,45 +423,12 @@
     <t>tapmadpkr</t>
   </si>
   <si>
-    <t>bolognafcbdt</t>
-  </si>
-  <si>
-    <t>bolognafcinr</t>
-  </si>
-  <si>
-    <t>bolognafcpkr1</t>
-  </si>
-  <si>
-    <t>bolognafcvnd</t>
-  </si>
-  <si>
-    <t>bolognafckhr</t>
-  </si>
-  <si>
     <t>sunrisers</t>
   </si>
   <si>
-    <t>88khaiscore</t>
-  </si>
-  <si>
-    <t>88khlive</t>
-  </si>
-  <si>
     <t>88khfotmob</t>
   </si>
   <si>
-    <t>krwmana</t>
-  </si>
-  <si>
-    <t>88vnsofascore</t>
-  </si>
-  <si>
-    <t>88vnlivescore</t>
-  </si>
-  <si>
-    <t>88vnfotmob</t>
-  </si>
-  <si>
     <t>casinosanalyzer</t>
   </si>
   <si>
@@ -661,25 +457,322 @@
   </si>
   <si>
     <t>billboardpkr</t>
+  </si>
+  <si>
+    <t>adsthbntve</t>
+  </si>
+  <si>
+    <t>ricbdntve</t>
+  </si>
+  <si>
+    <t>adsbdntve</t>
+  </si>
+  <si>
+    <t>adcbdntve</t>
+  </si>
+  <si>
+    <t>excbdntve</t>
+  </si>
+  <si>
+    <t>ricntvepk</t>
+  </si>
+  <si>
+    <t>daontvepk</t>
+  </si>
+  <si>
+    <t>adcntvepk</t>
+  </si>
+  <si>
+    <t>daobjnpntve</t>
+  </si>
+  <si>
+    <t>adsnpntve</t>
+  </si>
+  <si>
+    <t>adsnppush</t>
+  </si>
+  <si>
+    <t>tnmpshnp</t>
+  </si>
+  <si>
+    <t>adsvndnatve</t>
+  </si>
+  <si>
+    <t>88vnrichadntve</t>
+  </si>
+  <si>
+    <t>ceappbdt</t>
+  </si>
+  <si>
+    <t>cricbuzz</t>
+  </si>
+  <si>
+    <t>espnbdt</t>
+  </si>
+  <si>
+    <t>ceapppkr</t>
+  </si>
+  <si>
+    <t>cricbuzzpkr</t>
+  </si>
+  <si>
+    <t>espnpkrbj</t>
+  </si>
+  <si>
+    <t>adspkrpop</t>
+  </si>
+  <si>
+    <t>poabdpop</t>
+  </si>
+  <si>
+    <t>propadpk</t>
+  </si>
+  <si>
+    <t>propadpkpush</t>
+  </si>
+  <si>
+    <t>adxadpkpop</t>
+  </si>
+  <si>
+    <t>exopkrpop</t>
+  </si>
+  <si>
+    <t>emobbdpop</t>
+  </si>
+  <si>
+    <t>adxadbdpush</t>
+  </si>
+  <si>
+    <t>onclickabdt</t>
+  </si>
+  <si>
+    <t>adsbdpush</t>
+  </si>
+  <si>
+    <t>propadsbdpush</t>
+  </si>
+  <si>
+    <t>daobjbdpop</t>
+  </si>
+  <si>
+    <t>mbbdpop</t>
+  </si>
+  <si>
+    <t>mbbjbdpsh</t>
+  </si>
+  <si>
+    <t>gpgabjpk</t>
+  </si>
+  <si>
+    <t>gpgdnpkbj</t>
+  </si>
+  <si>
+    <t>fmgakrwbj</t>
+  </si>
+  <si>
+    <t>fmgdnkrwbj</t>
+  </si>
+  <si>
+    <t>svgakrwbj</t>
+  </si>
+  <si>
+    <t>svgdnkrwbj</t>
+  </si>
+  <si>
+    <t>svgdnidbj</t>
+  </si>
+  <si>
+    <t>fmgaidbj</t>
+  </si>
+  <si>
+    <t>fmgdnidbj</t>
+  </si>
+  <si>
+    <t>cmgathbbj</t>
+  </si>
+  <si>
+    <t>cmgdnthbj</t>
+  </si>
+  <si>
+    <t>fmgathbbj</t>
+  </si>
+  <si>
+    <t>fmgdnthbbj</t>
+  </si>
+  <si>
+    <t>svgathbbj</t>
+  </si>
+  <si>
+    <t>svgndthbbj</t>
+  </si>
+  <si>
+    <t>capkbj</t>
+  </si>
+  <si>
+    <t>caigbjpk</t>
+  </si>
+  <si>
+    <t>cafbnpbj</t>
+  </si>
+  <si>
+    <t>caignpbj</t>
+  </si>
+  <si>
+    <t>espninbdt</t>
+  </si>
+  <si>
+    <t>sportskeeda</t>
+  </si>
+  <si>
+    <t>bdtmirafsarali</t>
+  </si>
+  <si>
+    <t>batistuta</t>
+  </si>
+  <si>
+    <t>wasimakram</t>
+  </si>
+  <si>
+    <t>amyjackson</t>
+  </si>
+  <si>
+    <t>miakhalifa</t>
+  </si>
+  <si>
+    <t>stkittscpl</t>
+  </si>
+  <si>
+    <t>ceappads</t>
+  </si>
+  <si>
+    <t>cricredinr</t>
+  </si>
+  <si>
+    <t>tensportbjpkr</t>
+  </si>
+  <si>
+    <t>ctkbjpkr</t>
+  </si>
+  <si>
+    <t>billboardpkrnew</t>
+  </si>
+  <si>
+    <t>mirafsarali</t>
+  </si>
+  <si>
+    <t>tgidbj</t>
+  </si>
+  <si>
+    <t>tgbdbj</t>
+  </si>
+  <si>
+    <t>bjpkrcabletv</t>
+  </si>
+  <si>
+    <t>pwabdbj</t>
+  </si>
+  <si>
+    <t>ptbdbj</t>
+  </si>
+  <si>
+    <t>cxbjshabbdt</t>
+  </si>
+  <si>
+    <t>cxbjshabpkr</t>
+  </si>
+  <si>
+    <t>rolpkrpop</t>
+  </si>
+  <si>
+    <t>flatadpkr</t>
+  </si>
+  <si>
+    <t>crxlineappbjbdt</t>
+  </si>
+  <si>
+    <t>crxlineappbjpkr</t>
+  </si>
+  <si>
+    <t>vlbdbj</t>
+  </si>
+  <si>
+    <t>vlpkbj</t>
+  </si>
+  <si>
+    <t>vlnpbj</t>
+  </si>
+  <si>
+    <t>lyfbbjpkr</t>
+  </si>
+  <si>
+    <t>lyfbbjnp</t>
+  </si>
+  <si>
+    <t>lyfbbjinr</t>
+  </si>
+  <si>
+    <t>lligbdbj</t>
+  </si>
+  <si>
+    <t>lligpkbj</t>
+  </si>
+  <si>
+    <t>llignpbj</t>
+  </si>
+  <si>
+    <t>lliginbj</t>
+  </si>
+  <si>
+    <t>bjbdrb</t>
+  </si>
+  <si>
+    <t>bjpkrb</t>
+  </si>
+  <si>
+    <t>bjnprb</t>
+  </si>
+  <si>
+    <t>bjsportradar</t>
+  </si>
+  <si>
+    <t>bvfbbdbj</t>
+  </si>
+  <si>
+    <t>bvfbpkbj</t>
+  </si>
+  <si>
+    <t>bvfbnpbj</t>
+  </si>
+  <si>
+    <t>patstbdbj</t>
+  </si>
+  <si>
+    <t>patstpkbj</t>
+  </si>
+  <si>
+    <t>patstnpbj</t>
+  </si>
+  <si>
+    <t>ptpkbj</t>
+  </si>
+  <si>
+    <t>ptnpbj</t>
+  </si>
+  <si>
+    <t>ptinbj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -708,9 +801,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,15 +1118,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1CA67E-D738-4879-A30D-4295B6F7FC05}">
-  <dimension ref="A1:A212"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1074,137 +1166,137 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -1214,7 +1306,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -1289,92 +1381,92 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -1382,8 +1474,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1634,467 +1726,637 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
